--- a/Exercise.xlsx
+++ b/Exercise.xlsx
@@ -120,8 +120,7 @@
 B选项（Hadoop分布式文件系统是GFS的开源实现）、C选项（谷歌开发了分布式文件系统GFS）和D选项（它是一种通过网络在多个主机上实现文件分布式存储的文件系统）是正确的描述。</t>
   </si>
   <si>
-    <t>( ) reflect the degree of refinement of the data, the more refined the data, the 
-higher the value</t>
+    <t>reflect the degree of refinement of the data, the more refined the data, the higher the value</t>
   </si>
   <si>
     <t xml:space="preserve">A. Association degree 
@@ -188,8 +187,12 @@
 D. cluster analysis </t>
   </si>
   <si>
-    <t>A. 分类和预测
-统计分析通常包括相关性分析（B）、对比分析（C）和聚类分析（D），这些都是统计方法用来理解数据的结构和模式。然而，分类和预测（A）更多地被视为数据挖掘或机器学习领域的方法，而不是传统统计分析的一部分。这些方法侧重于从数据中学习模式，并用这些模式来预测新数据的特征或行为，这超出了传统统计分析的范畴。</t>
+    <t>数据的统计分析通常包括各种方法和技术来理解和解释数据。在所提供的选项中：
+A. 分类和预测：统计分析可以涉及分类和预测方法，如逻辑回归或决策树，用于对数据进行分类或进行未来预测。
+B. 相关性分析：这是统计分析的基本部分，您可以通过它来检查变量之间的关系，以确定它们是否相关。
+D. 聚类分析：聚类分析是另一种常见的统计技术，用于根据某些特征将相似的数据点分组。
+选项 "C. 对比分析" 通常不被视为统计分析的标准部分。对比分析更常与语言学和语言研究相关，用于比较和对比不同语言或语言特征。
+因此，正确答案是 C. 对比分析。</t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following statements is false about the content of data visualization ( ) </t>
@@ -480,8 +483,8 @@
 D. Microsoft company </t>
   </si>
   <si>
-    <t>C. 谷歌公司 (Google Inc.)
-谷歌是在处理巨量的网络数据过程中最早使用并推广“大数据”这个概念的公司之一。它在搜索引擎技术和相关算法的发展中处理了海量的数据，从而在大数据领域中发挥了领导作用。其他公司如Facebook、McKinsey和Microsoft虽然在大数据领域也有重要的贡献，但它们并不是最早提出这一概念的公司。</t>
+    <t>以下是ChatGPT的幻觉：C. 谷歌公司 
+谷歌是在处理巨量的网络数据过程中最早使用并推广“大数据”这个概念的公司之一。它在搜索引擎技术和相关算法的发展中处理了海量的数据，从而在大数据领域中发挥了领导作用。其他公司如Facebook、McKinsey和Microsoft虽然在大数据领域也有重要的贡献，但它们并不是最早提出这一概念的公司。正确答案是麦肯尼公司，chat他骗我，答案是B，答案是B，答案是B</t>
   </si>
   <si>
     <t>Which of the following is unstructured data ( )</t>
@@ -2395,11 +2398,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2407,9 +2407,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2947,8 +2944,8 @@
   <sheetPr/>
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E78" workbookViewId="0">
+      <selection activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2956,10 +2953,10 @@
     <col min="1" max="1" width="4.53097345132743" customWidth="1"/>
     <col min="2" max="2" width="9.53097345132743" customWidth="1"/>
     <col min="3" max="3" width="7.53097345132743" customWidth="1"/>
-    <col min="4" max="4" width="254.477876106195" customWidth="1"/>
-    <col min="5" max="5" width="22.6371681415929" customWidth="1"/>
+    <col min="4" max="4" width="11.7964601769912" customWidth="1"/>
+    <col min="5" max="5" width="38.2566371681416" customWidth="1"/>
     <col min="6" max="6" width="7.53097345132743" customWidth="1"/>
-    <col min="7" max="7" width="126.309734513274" customWidth="1"/>
+    <col min="7" max="7" width="53.8053097345133" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2985,526 +2982,526 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="337.5" spans="1:7">
-      <c r="A2" s="2">
+    <row r="2" ht="202.5" spans="1:7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:7">
-      <c r="A3" s="2">
+    <row r="3" ht="94.5" spans="1:7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="94.5" spans="1:7">
-      <c r="A4" s="2">
+    <row r="4" ht="148.5" spans="1:7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="391.5" spans="1:7">
-      <c r="A5" s="2">
+    <row r="5" ht="243" spans="1:7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="243" spans="1:7">
-      <c r="A6" s="2">
+    <row r="6" ht="175.5" spans="1:7">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="81" spans="1:7">
-      <c r="A7" s="2">
+    <row r="7" ht="135" spans="1:7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="81" spans="1:7">
-      <c r="A8" s="2">
+    <row r="8" ht="135" spans="1:7">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="94.5" spans="1:7">
-      <c r="A9" s="2">
+    <row r="9" ht="81" spans="1:7">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="324" spans="1:7">
-      <c r="A10" s="2">
+    <row r="10" ht="202.5" spans="1:7">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="94.5" spans="1:7">
-      <c r="A11" s="2">
+    <row r="11" ht="162" spans="1:7">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="337.5" spans="1:7">
-      <c r="A12" s="2">
+    <row r="12" ht="202.5" spans="1:7">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="54" spans="1:7">
-      <c r="A13" s="2">
+    <row r="13" ht="94.5" spans="1:7">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="243" spans="1:7">
-      <c r="A14" s="2">
+    <row r="14" ht="148.5" spans="1:7">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="283.5" spans="1:7">
-      <c r="A15" s="2">
+    <row r="15" ht="175.5" spans="1:7">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="67.5" spans="1:7">
-      <c r="A16" s="2">
+    <row r="16" ht="108" spans="1:7">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" ht="108" spans="1:7">
-      <c r="A17" s="2">
+    <row r="17" ht="189" spans="1:7">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" ht="162" spans="1:7">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" ht="135" spans="1:7">
-      <c r="A19" s="2">
+    <row r="19" ht="108" spans="1:7">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" ht="108" spans="1:7">
-      <c r="A20" s="2">
+    <row r="20" ht="135" spans="1:7">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" ht="81" spans="1:7">
-      <c r="A21" s="2">
+    <row r="21" ht="121.5" spans="1:7">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" ht="94.5" spans="1:7">
-      <c r="A22" s="2">
+    <row r="22" ht="135" spans="1:7">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" ht="216" spans="1:7">
-      <c r="A23" s="2">
+    <row r="23" ht="351" spans="1:7">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" ht="81" spans="1:7">
-      <c r="A24" s="2">
+    <row r="24" ht="54" spans="1:7">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3514,1607 +3511,1607 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" ht="94.5" spans="1:7">
-      <c r="A25" s="2">
+    <row r="25" ht="162" spans="1:7">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" ht="94.5" spans="1:7">
-      <c r="A26" s="2">
+    <row r="26" ht="148.5" spans="1:7">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" ht="81" spans="1:7">
-      <c r="A27" s="2">
+    <row r="27" ht="135" spans="1:7">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" ht="67.5" spans="1:7">
-      <c r="A28" s="2">
+    <row r="28" ht="121.5" spans="1:7">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" ht="108" spans="1:7">
-      <c r="A29" s="2">
+    <row r="29" ht="148.5" spans="1:7">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>94</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" ht="94.5" spans="1:7">
-      <c r="A30" s="2">
+    <row r="30" ht="135" spans="1:7">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" ht="67.5" spans="1:7">
-      <c r="A31" s="2">
+    <row r="31" ht="108" spans="1:7">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" ht="94.5" spans="1:7">
-      <c r="A32" s="2">
+    <row r="32" ht="148.5" spans="1:7">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" ht="162" spans="1:7">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>106</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" ht="135" spans="1:7">
-      <c r="A34" s="2">
+    <row r="34" ht="148.5" spans="1:7">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" ht="108" spans="1:7">
-      <c r="A35" s="2">
+    <row r="35" ht="162" spans="1:7">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" ht="81" spans="1:7">
-      <c r="A36" s="2">
+    <row r="36" ht="148.5" spans="1:7">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>115</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" ht="108" spans="1:7">
-      <c r="A37" s="2">
+    <row r="37" ht="175.5" spans="1:7">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" ht="67.5" spans="1:7">
-      <c r="A38" s="2">
+    <row r="38" ht="121.5" spans="1:7">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" ht="310.5" spans="1:7">
-      <c r="A39" s="2">
+    <row r="39" ht="189" spans="1:7">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>124</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" ht="175.5" spans="1:7">
-      <c r="A40" s="2">
+    <row r="40" ht="108" spans="1:7">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" ht="54" spans="1:7">
-      <c r="A41" s="2">
+    <row r="41" ht="94.5" spans="1:7">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>130</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" ht="54" spans="1:7">
-      <c r="A42" s="2">
+    <row r="42" ht="108" spans="1:7">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>41</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" ht="54" spans="1:7">
-      <c r="A43" s="2">
+    <row r="43" ht="108" spans="1:7">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>42</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>136</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" ht="54" spans="1:7">
-      <c r="A44" s="2">
+    <row r="44" ht="67.5" spans="1:7">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" ht="54" spans="1:7">
-      <c r="A45" s="2">
+    <row r="45" ht="202.5" spans="1:7">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>44</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>142</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" ht="94.5" spans="1:7">
-      <c r="A46" s="2">
+    <row r="46" ht="175.5" spans="1:7">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" ht="108" spans="1:7">
-      <c r="A47" s="2">
+    <row r="47" ht="94.5" spans="1:7">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="48" ht="108" spans="1:7">
-      <c r="A48" s="2">
+    <row r="48" ht="175.5" spans="1:7">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>151</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" ht="135" spans="1:7">
-      <c r="A49" s="2">
+    <row r="49" ht="189" spans="1:7">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>154</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="50" ht="108" spans="1:7">
-      <c r="A50" s="2">
+    <row r="50" ht="162" spans="1:7">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>157</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="51" ht="54" spans="1:7">
-      <c r="A51" s="2">
+    <row r="51" ht="81" spans="1:7">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>50</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>160</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="52" ht="67.5" spans="1:7">
-      <c r="A52" s="2">
+    <row r="52" ht="94.5" spans="1:7">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>51</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="94.5" spans="1:7">
-      <c r="A53" s="2">
+    <row r="53" ht="148.5" spans="1:7">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54" ht="54" spans="1:7">
-      <c r="A54" s="2">
+    <row r="54" ht="94.5" spans="1:7">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>53</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="3" t="s">
         <v>169</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="55" ht="81" spans="1:7">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>54</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" ht="81" spans="1:7">
-      <c r="A56" s="2">
+    <row r="56" ht="135" spans="1:7">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>55</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>175</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" ht="297" spans="1:7">
-      <c r="A57" s="2">
+    <row r="57" ht="175.5" spans="1:7">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>56</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>178</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" ht="243" spans="1:7">
-      <c r="A58" s="2">
+    <row r="58" ht="148.5" spans="1:7">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>57</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>181</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="59" ht="121.5" spans="1:7">
-      <c r="A59" s="2">
+    <row r="59" ht="175.5" spans="1:7">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>58</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="60" ht="54" spans="1:7">
-      <c r="A60" s="2">
+    <row r="60" ht="81" spans="1:7">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>59</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>187</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="61" ht="189" spans="1:7">
-      <c r="A61" s="2">
+    <row r="61" ht="148.5" spans="1:7">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>60</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="62" ht="81" spans="1:7">
-      <c r="A62" s="2">
+    <row r="62" ht="148.5" spans="1:7">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>61</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="3" t="s">
         <v>193</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="63" ht="94.5" spans="1:7">
-      <c r="A63" s="2">
+    <row r="63" ht="148.5" spans="1:7">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>62</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>196</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" ht="94.5" spans="1:7">
-      <c r="A64" s="2">
+    <row r="64" ht="162" spans="1:7">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>63</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="3" t="s">
         <v>199</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="65" ht="148.5" spans="1:7">
-      <c r="A65" s="2">
+    <row r="65" ht="243" spans="1:7">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>203</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="66" ht="175.5" spans="1:7">
-      <c r="A66" s="2">
+    <row r="66" ht="256.5" spans="1:7">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>207</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="67" ht="148.5" spans="1:7">
-      <c r="A67" s="2">
+    <row r="67" ht="216" spans="1:7">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="3" t="s">
         <v>211</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="68" ht="94.5" spans="1:7">
-      <c r="A68" s="2">
+    <row r="68" ht="162" spans="1:7">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>215</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="69" ht="148.5" spans="1:7">
-      <c r="A69" s="2">
+    <row r="69" ht="229.5" spans="1:7">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>219</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="70" ht="148.5" spans="1:7">
-      <c r="A70" s="2">
+    <row r="70" ht="216" spans="1:7">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="3" t="s">
         <v>222</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="71" ht="148.5" spans="1:7">
-      <c r="A71" s="2">
+    <row r="71" ht="216" spans="1:7">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="2">
-        <v>7</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="1">
+        <v>7</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="3" t="s">
         <v>225</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="72" ht="148.5" spans="1:7">
-      <c r="A72" s="2">
+    <row r="72" ht="202.5" spans="1:7">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>228</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="73" ht="148.5" spans="1:7">
-      <c r="A73" s="2">
+    <row r="73" ht="229.5" spans="1:7">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>9</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>232</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="74" ht="175.5" spans="1:7">
-      <c r="A74" s="2">
+    <row r="74" ht="256.5" spans="1:7">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>10</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>235</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="75" ht="148.5" spans="1:7">
-      <c r="A75" s="2">
+    <row r="75" ht="229.5" spans="1:7">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>11</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="3" t="s">
         <v>238</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="76" ht="135" spans="1:7">
-      <c r="A76" s="2">
+    <row r="76" ht="202.5" spans="1:7">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="1">
         <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="3" t="s">
         <v>241</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="77" ht="148.5" spans="1:7">
-      <c r="A77" s="2">
+    <row r="77" ht="256.5" spans="1:7">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="1">
         <v>13</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="3" t="s">
         <v>244</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="78" ht="324" spans="1:7">
-      <c r="A78" s="2">
+    <row r="78" ht="310.5" spans="1:7">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="1">
         <v>14</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="3" t="s">
         <v>247</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="79" ht="189" spans="1:7">
-      <c r="A79" s="2">
+    <row r="79" ht="283.5" spans="1:7">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <v>15</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="3" t="s">
         <v>250</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="80" ht="270" spans="1:7">
-      <c r="A80" s="2">
+    <row r="80" ht="202.5" spans="1:7">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="1">
         <v>16</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="3" t="s">
         <v>254</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="81" ht="108" spans="1:7">
-      <c r="A81" s="2">
+    <row r="81" ht="189" spans="1:7">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <v>17</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="3" t="s">
         <v>258</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="82" ht="94.5" spans="1:7">
-      <c r="A82" s="2">
+    <row r="82" ht="135" spans="1:7">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <v>18</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="3" t="s">
         <v>262</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="83" ht="121.5" spans="1:7">
-      <c r="A83" s="2">
+    <row r="83" ht="202.5" spans="1:7">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <v>19</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="3" t="s">
         <v>265</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="84" ht="162" spans="1:7">
-      <c r="A84" s="2">
+    <row r="84" ht="256.5" spans="1:7">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="1">
         <v>20</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>268</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="85" ht="202.5" spans="1:7">
-      <c r="A85" s="2">
+    <row r="85" ht="351" spans="1:7">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="1">
         <v>21</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="3" t="s">
         <v>271</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="86" ht="283.5" spans="1:7">
-      <c r="A86" s="2">
+    <row r="86" ht="409.5" spans="1:7">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="1">
         <v>22</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="3" t="s">
         <v>274</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="87" ht="162" spans="1:7">
-      <c r="A87" s="2">
+    <row r="87" ht="256.5" spans="1:7">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="1">
         <v>23</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>277</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="88" ht="189" spans="1:7">
-      <c r="A88" s="2">
+    <row r="88" ht="270" spans="1:7">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="1">
         <v>24</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="3" t="s">
         <v>281</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="89" ht="162" spans="1:7">
-      <c r="A89" s="2">
+    <row r="89" ht="229.5" spans="1:7">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="1">
         <v>25</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="3" t="s">
         <v>284</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="90" ht="270" spans="1:7">
-      <c r="A90" s="2">
+    <row r="90" ht="256.5" spans="1:7">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="1">
         <v>26</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="3" t="s">
         <v>287</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="91" ht="243" spans="1:7">
-      <c r="A91" s="2">
+    <row r="91" ht="337.5" spans="1:7">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="1">
         <v>27</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="3" t="s">
         <v>290</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="92" ht="391.5" spans="1:7">
-      <c r="A92" s="2">
+    <row r="92" ht="324" spans="1:7">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="1">
         <v>28</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="3" t="s">
         <v>293</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" ht="216" spans="1:7">
-      <c r="A93" s="2">
+    <row r="93" ht="351" spans="1:7">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <v>29</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="3" t="s">
         <v>296</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="94" ht="94.5" spans="1:7">
-      <c r="A94" s="2">
+    <row r="94" ht="54" spans="1:7">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="1">
         <v>30</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="3" t="s">
         <v>300</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -5124,624 +5121,624 @@
         <v>301</v>
       </c>
     </row>
-    <row r="95" ht="202.5" spans="1:7">
-      <c r="A95" s="2">
+    <row r="95" ht="283.5" spans="1:7">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="1">
         <v>31</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="3" t="s">
         <v>303</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="96" ht="135" spans="1:7">
-      <c r="A96" s="2">
+    <row r="96" ht="202.5" spans="1:7">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="1">
         <v>32</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="3" t="s">
         <v>306</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="97" ht="216" spans="1:7">
-      <c r="A97" s="2">
+    <row r="97" ht="297" spans="1:7">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="1">
         <v>33</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="3" t="s">
         <v>309</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="3" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="98" ht="27" spans="1:7">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="1">
         <v>1</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G98" s="5" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="99" ht="27" spans="1:7">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="1">
         <v>2</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G99" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="100" ht="27" spans="1:7">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="1">
         <v>3</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G100" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="101" ht="27" spans="1:7">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="1">
         <v>4</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="G101" s="5" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="102" ht="27" spans="1:7">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="1">
         <v>5</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="G102" s="5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="103" ht="27" spans="1:7">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="1">
         <v>6</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G103" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="104" ht="27" spans="1:7">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C104" s="2">
-        <v>7</v>
-      </c>
-      <c r="D104" s="6" t="s">
+      <c r="C104" s="1">
+        <v>7</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="G104" s="5" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="105" ht="27" spans="1:7">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="1">
         <v>8</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="G105" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="106" ht="27" spans="1:7">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="1">
         <v>9</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="7" t="s">
+      <c r="G106" s="5" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="107" ht="27" spans="1:7">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="1">
         <v>10</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="G107" s="5" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="108" ht="27" spans="1:7">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="1">
         <v>11</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="G108" s="5" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="109" ht="27" spans="1:7">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="1">
         <v>12</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G109" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="110" ht="27" spans="1:7">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="1">
         <v>13</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="G110" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="111" ht="27" spans="1:7">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="1">
         <v>14</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G111" s="5" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="112" ht="27" spans="1:7">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="1">
         <v>15</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="G112" s="5" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="113" ht="27" spans="1:7">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="1">
         <v>16</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="G113" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="114" ht="27" spans="1:7">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="1">
         <v>17</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="G114" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="115" ht="27" spans="1:7">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="1">
         <v>18</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="G115" s="5" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="116" ht="27" spans="1:7">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="1">
         <v>19</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="G116" s="5" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="117" ht="27" spans="1:7">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="1">
         <v>20</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="G117" s="5" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="118" ht="27" spans="1:7">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="1">
         <v>21</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="G118" s="5" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="119" ht="27" spans="1:7">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="1">
         <v>22</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G119" s="5" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="120" ht="27" spans="1:7">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="1">
         <v>23</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="G120" s="5" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="121" ht="27" spans="1:7">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="1">
         <v>24</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="3" t="s">
         <v>313</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="G121" s="5" t="s">
         <v>360</v>
       </c>
     </row>

--- a/Exercise.xlsx
+++ b/Exercise.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="360">
   <si>
     <t>ID</t>
   </si>
@@ -66,11 +66,17 @@
 D. Pair deletion </t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>D. 成对删除
-数据清洗通常涉及如一致性检查、准确性检查以及处理无效和缺失值等过程。这些步骤旨在确保数据的质量和可靠性，以便于分析。而成对删除并不是数据清洗过程的一个标准或常见部分，它可能更多地与特定的数据分析技术或统计方法相关，而不是数据清洗的通用过程。</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>选项中不属于数据清洗的部分是：
+B. 准确性检查
+解释：
+A. 一致性检查：这是数据清洗的一个重要部分。一致性检查涉及确保数据在不同数据源和数据集之间保持一致，例如确保日期格式、货币单位等在整个数据集中是统一的。
+C. 处理无效和缺失值：这也是数据清洗的核心组成部分。处理无效值可能涉及识别和纠正错误的或不合适的数据点，而处理缺失值可能涉及填补缺失值或决定如何处理这些空缺。
+D. 成对删除：这是处理缺失数据的一种方法，特别是在统计分析中。如果一个数据对中的任一项缺失，就删除整个数据对。这是数据清洗过程中常用的技术之一。
+相比之下：
+B. 准确性检查：虽然准确性对于数据分析非常重要，但它通常不被视为数据清洗的一部分。准确性检查涉及验证数据是否准确反映了真实情况或实际值，这通常需要外部验证或额外的数据源，并且通常发生在数据清洗之前或之后。</t>
   </si>
   <si>
     <t>Which of the following is not a traditional data storage and management technology ( )</t>
@@ -129,9 +135,6 @@
 D. Activity </t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>B. 粒度
 数据的粒度指的是数据的细致程度或详细程度。数据粒度更高意味着数据更加细化，提供了更详细的信息。例如，一个以天为单位收集的数据集具有比以年为单位收集的数据集更高的粒度。
 A选项（关联度）、C选项（规模）和D选项（活跃度）并不直接与数据的细化程度相关。</t>
@@ -144,6 +147,9 @@
 B. Multiple data types 
 C. Fast data processing speed 
 D. High data value density </t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>D. 高数据价值密度
@@ -455,11 +461,6 @@
 D. Mass data management technology </t>
   </si>
   <si>
-    <t>B. 并行计算技术
-并行计算技术是处理大数据的关键技术之一，它允许同时在多个处理器上进行数据的处理和分析，显著提高了处理大数据集的速度和效率。这在互联网引擎和其他大数据应用中非常重要，因为它们需要快速处理和分析大量的数据。
-虚拟化技术（A选项）、大数据存储技术（C选项）和大数据管理技术（D选项）虽然也是大数据领域的重要组成部分，但它们并不专门指互联网引擎或类似系统用于计算和分析大数据的技术。</t>
-  </si>
-  <si>
     <t>Apriori algorithm is a commonly used algorithm for ( )</t>
   </si>
   <si>
@@ -510,8 +511,14 @@
 D. Collection—cleaning—statistics—mining </t>
   </si>
   <si>
-    <t>C. 收集（Collection）— 清洗（Cleaning）— 挖掘（Mining）— 统计（Statistics）
-这个过程首先包括数据的收集，然后是数据清洗，以去除无效、错误或不完整的数据。接下来是数据挖掘，在这一阶段，应用各种技术和算法来发现数据中的模式和洞察。最后，进行数据统计，以总结和解释挖掘结果。这个流程确保了从原始数据收集到有用信息提取的每一步都得到了妥善处理。</t>
+    <t>大数据利用的过程是：
+D. 收集—清洗—统计—挖掘
+解释：
+收集（Collection）：这是大数据处理的第一步，涉及从各种来源收集数据。这些数据可能来自于互联网、传感器、日志文件、交易记录等。
+清洗（Cleaning）：一旦数据被收集，接下来需要对其进行清洗。数据清洗包括去除重复数据、纠正错误、处理缺失值等，以确保数据的质量。
+统计（Statistics）：数据清洗后，接下来通常进行一些基本的统计分析。这可能包括计算平均值、标准差、中位数等，以及进行更复杂的统计测试。这有助于了解数据的基本特性和分布。
+挖掘（Mining）：最后是数据挖掘阶段，这里使用各种算法和技术来发现数据中的模式、关联和洞察。数据挖掘可能包括机器学习、预测建模、聚类分析等。
+每个步骤都是为下一个步骤打基础的，确保数据的质量和准备好数据以进行更深入的分析和挖掘</t>
   </si>
   <si>
     <t>Big Data is not about ( )</t>
@@ -569,10 +576,14 @@
 D. cutting-edge technology </t>
   </si>
   <si>
-    <t>互联网 (A)：虽然互联网对于数据传输和访问至关重要，但它对于大数据来说并不够具体。大数据依赖于从各种来源生成的海量数据，而不仅仅是互联网提供的基础设施。
-物联网 (IoT) (B)：物联网是互联设备的网络，它们收集和交换数据。这为大数据应用创造了来自多样化来源的丰富和持续的数据流。智能传感器、可穿戴技术和智能家居设备等IoT设备显著贡献于大数据的体量、多样性和速度。
-网络信息 (C)：网络信息指的是通过网络传输的数据，它是大数据的一个组成部分，但并没有涵盖其全部范围。大数据不仅包括网络数据，还包括来自其他多种来源的数据。
-前沿技术 (D)：虽然前沿技术可能有助于大数据的进步和处理，但它并不是大数据起源或成长的“土壤”。它更多的是管理和分析大数据的工具，而不是数据的来源。</t>
+    <t>大数据赖以生存的土壤是：
+A. 互联网
+解释：
+互联网是大数据的主要来源之一，因为它提供了一个庞大且不断增长的数据源。从社交媒体、在线交易、搜索引擎查询到各种网站上的用户行为，互联网上产生了大量的数据，这些数据是大数据分析和应用的关键。
+其他选项虽然也与大数据有关，但它们不如互联网那样基础和普遍：
+B. 物联网（Internet of Things, IoT）：虽然物联网是大数据的重要来源之一，但它更多是基于互联网的一种扩展，通过连接各种设备和传感器来收集数据。
+C. 网络信息：这是一个更广泛的概念，可以包括互联网和其他网络产生的数据。尽管网络信息对大数据很重要，但它不如互联网那样具有代表性。
+D. 尖端技术：这些技术（如人工智能、机器学习等）确实对大数据的分析和处理起到关键作用，但它们不是大数据存在的“土壤”，而是处理和分析大数据的工具。</t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following is not a typical classification algorithm ( ) </t>
@@ -987,16 +998,18 @@
 D. accuracy </t>
   </si>
   <si>
-    <t>ABD</t>
-  </si>
-  <si>
-    <t>A. 高效率 (high efficiency)
-B. 全面性 (all sidedness)
-D. 准确性 (accuracy)
-高效率：在数据收集过程中，高效率是至关重要的。这意味着能够在较短的时间内收集到所需的数据，同时确保数据收集过程的成本效益。
-全面性：数据收集应全面，覆盖所有相关领域和方面。全面性确保了数据集的完整性，从而可以支持更全面的分析和决策。
-准确性：数据收集的准确性是基础，错误或误导性的数据可以导致错误的分析和结论。
-虽然“多维性 (multi-dimension)”也是数据收集的一个重要方面，但它通常是指数据本身的特征，而不是数据收集过程的要点。多维性涉及收集的数据能够从多个角度或维度反映信息，这与全面性有所不同。全面性更多强调的是覆盖所有相关领域，而多维性强调的是深度和多角度的理解。</t>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>数据收集的三个主要要点是：
+A. 高效率
+B. 全面性
+C. 多维度
+解释：
+高效率（High Efficiency）：在数据收集过程中，高效率是至关重要的。这意味着数据收集应该迅速且成本效益高，能够在最短的时间内收集到所需的数据。
+全面性（All Sidedness）：全面性指的是在数据收集过程中要尽可能地覆盖所有相关领域和方面。这样可以确保数据集具有代表性，从而使得基于这些数据的分析更加准确和可靠。
+多维度（Multi-Dimension）：多维数据收集意味着从不同角度和方面收集数据。这包括各种类型的数据，如定量和定性数据，以及来自不同来源的数据。多维度的数据收集有助于提供更全面的视角和深入的洞察。
+虽然准确性（Accuracy）也是数据收集的一个重要方面，但在给出的选项中，它并不被列为主要要点之一。准确性涉及数据的质量，确保收集的数据正确无误。在实际应用中，准确性与上述三个要点同等重要。</t>
   </si>
   <si>
     <t>The main data sources for data collection include ( )</t>
@@ -1031,9 +1044,6 @@
 D．Clean data </t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>A．畸形数据 (deformity data)
 B．重复数据 (repeating data)
 C．错误数据 (wrong data)
@@ -1052,9 +1062,6 @@
 D. integrated </t>
   </si>
   <si>
-    <t>BCD</t>
-  </si>
-  <si>
     <t>相对稳定：数据仓库中的数据一旦载入后通常不会频繁更改，这提供了一个稳定的数据分析环境。
 面向主题：数据仓库是按主题组织数据的，如销售、财务等，而不是按照应用程序或数据源组织。
 反映历史变化：数据仓库存储了数据随时间的变化，使得可以进行时间序列分析和趋势分析。
@@ -1086,6 +1093,9 @@
 B. Classification
 C. orthogonality 
 D. regression analysis </t>
+  </si>
+  <si>
+    <t>ABD</t>
   </si>
   <si>
     <t>A. 聚类 (clustering)
@@ -1146,13 +1156,15 @@
 D. management problem </t>
   </si>
   <si>
-    <t>A. 系统问题 (system problem)
-B. 数据问题 (data problem)
-D. 管理问题 (management problem)
-系统问题：随着数据量的急剧增加，现有的系统可能难以处理如此大规模的数据。这可能涉及到数据存储、数据处理速度、数据整合等方面的挑战。
-数据问题：大数据通常包括来自多种源的多种格式的数据，如何确保数据的质量、数据的融合、数据的实时分析等都是挑战。
-管理问题：管理大数据涉及数据治理、数据安全、隐私保护、合规性等方面的挑战。
-C. 应用系统 (application system) 虽然在处理大数据时也很重要，但它本身通常不被视为大数据面临的主要挑战之一。应用系统更多的是解决方案的一部分，而非挑战。</t>
+    <t>大数据面临的挑战的选项包括：
+A. 系统问题
+C. 应用系统
+D. 管理问题
+解释：
+系统问题（System Problem）：随着数据量的不断增加，现有的计算系统可能难以处理这么大量的数据。这包括存储容量、处理速度、数据传输速率等方面的挑战。
+应用系统（Application System）：大数据的应用系统需要能够有效处理和分析海量数据，同时提供实时或准实时的数据处理能力。这要求应用系统具有高度的灵活性、扩展性和可靠性。
+管理问题（Management Problem）：随着数据规模的扩大，数据的管理变得更加复杂。这包括数据治理、数据安全和隐私保护、以及如何有效地组织和利用这些数据。
+B选项“数据问题”（Data Problem）虽然可以被认为是大数据面临的一个挑战，但在给定的选项中并未直接列出。数据问题可能涉及数据的质量、完整性、一致性和准确性等方面。</t>
   </si>
   <si>
     <t>Now, the following options are the main ones that solve the data integration 
@@ -1165,12 +1177,14 @@
 D. Isomorphism </t>
   </si>
   <si>
+    <t>AB</t>
+  </si>
+  <si>
     <t>A. 异构性处理 (heterogeneity)
 B. 分布性处理 (distributivity)
-C. 自主性处理 (autonomy)
 异构性处理：数据集成的一个主要挑战是处理不同来源的数据，这些数据可能在格式、结构和语义上有所不同。解决这个问题需要有效的方法来处理数据的异构性，比如通过中间件、数据转换和映射工具。
 分布性处理：数据通常分布在不同的地点或系统中。集成这些分布式的数据需要有效的数据分布策略和技术，比如分布式数据库系统和数据仓库技术。
-自主性处理：不同的数据源可能有不同的管理和控制机制，解决自主性问题涉及协调和整合这些独立管理的数据源。
+C. 自主性处理 (autonomy)不同的数据源可能有不同的管理和控制机制，解决自主性问题涉及协调和整合这些独立管理的数据源。
 D. 同构性 (Isomorphism) 并不是解决数据集成挑战的主要方法之一。同构性在数学和逻辑学中指的是两个系统之间的某种一致或相似性，而在数据集成的语境中，异构性的处理才是主要的挑战。</t>
   </si>
   <si>
@@ -1185,11 +1199,12 @@
   <si>
     <t>A. 分类 (classification)
 B. 聚类 (clustering)
+C. 特征分析 (feature analysis)
 D. 决策树归纳 (Decision Tree Induction)
 分类：这是一种监督学习算法，用于将数据项分配给预定义的类别或标签。
 聚类：作为一种无监督学习算法，聚类旨在将数据分成若干组或簇，使得同一簇内的数据项相似度较高，而不同簇之间的数据项相似度较低。
 决策树归纳：这是一种常用的分类和回归算法，通过创建决策树来模拟数据的决策路径。
-C. 特征分析 (feature analysis) 虽然是数据挖掘过程中的一个重要步骤，但它本身通常不被视为一个独立的数据挖掘算法。特征分析更多地涉及到数据预处理和数据转换，为使用其他数据挖掘算法如分类、聚类和决策树归纳做准备。</t>
+特征分析：是数据挖掘过程中的一个重要步骤。特征分析更多地涉及到数据预处理和数据转换，为使用其他数据挖掘算法如分类、聚类和决策树归纳做准备。</t>
   </si>
   <si>
     <t>Methods of big data acquisition are ( )</t>
@@ -1241,11 +1256,11 @@
     <t>A. 在数据从生成到删除和销毁的过程中，存在几个不同的数据阶段
 B. 在数据存在的不同阶段，数据的价值是不同的
 C. 根据数据的不同价值，对数据采取不同的管理策略
-D. 数据生命周期管理的目标是在减少生产成本的同时产生益处
-存在几个不同的数据阶段：数据生命周期通常包括创建、存储、使用、共享、归档和销毁等阶段。
 数据存在的不同阶段价值不同：例如，新生成的数据可能比旧数据更有价值，或者某些数据在特定时间点（如财务年度结束时）可能变得更重要。
 根据数据价值采取不同管理策略：根据数据的重要性和相关性，可以采取不同的存储、保护和共享策略。
 目标是在减少成本的同时产生益处：有效的数据生命周期管理旨在优化数据存储和使用过程中的成本效益，确保数据质量和可用性，同时减少不必要的成本。
+D. 数据生命周期管理的目标是在减少生产成本的同时产生益处
+存在几个不同的数据阶段：数据生命周期通常包括创建、存储、使用、共享、归档和销毁等阶段。
 E. 最终关注社会利益：这一点并不是数据生命周期管理的直接目标。虽然良好的数据管理可以对社会产生积极影响（如通过提高效率和透明度），但数据生命周期管理本身更多地集中在组织内部的数据价值和效率上。</t>
   </si>
   <si>
@@ -1259,10 +1274,10 @@
 E. incomplete data </t>
   </si>
   <si>
-    <t>ABCE</t>
-  </si>
-  <si>
-    <t>A. 不规则形式 (Irregular form)
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>以下是chat给的答案，我觉得没毛病，但老师说是全选。A. 不规则形式 (Irregular form)
 B. 编码不一致 (Coding inconsistency)
 C. 意义模糊 (Ambiguity of meaning)
 E. 数据不完整 (incomplete data)
@@ -1392,7 +1407,7 @@
 D. Big data provides powerful storage and computing power for artificial intelligence </t>
   </si>
   <si>
-    <t>关于大数据与人工智能之间关系的正确描述包括：
+    <t>老师说是ABCD。关于大数据与人工智能之间关系的正确描述包括：
 A. 人工智能需要数据来构建其智能，尤其是机器学习 (AI needs data to build its intelligence, especially machine learning)
 B. 人工智能应用的数据越多，其获得的结果越准确 (The more data AI applies, the more accurate the results it gets)
 C. 大数据为人工智能提供了大量数据，这使得人工智能取得了巨大进步 (Big data has provided massive data for artificial intelligence, which has made great progress in artificial intelligence)
@@ -1431,7 +1446,7 @@
 D. Network data collection </t>
   </si>
   <si>
-    <t>典型的数据获取方法包括：
+    <t>老师说的。典型的数据获取方法包括：
 A. 系统日志收集 (System log collection)
 C. ETL (Extract, Transform, Load)
 D. 网络数据收集 (Network data collection)
@@ -1469,7 +1484,7 @@
 D. The Reduce task summarizes the intermediate results to obtain the final result </t>
   </si>
   <si>
-    <t>关于MapReduce工作流程的正确描述包括：
+    <t>上课说是ABD。关于MapReduce工作流程的正确描述包括：
 A. 一个大型的MapReduce作业可以被分解为多个Map任务，在多台机器上并行执行
 B. 每个Map任务通常在数据存储的一个节点上运行
 C. 当Map任务完成后，会生成一些中间结果，形式为&lt;key, value-list&gt;
@@ -1532,10 +1547,10 @@
 D. Share the underlying storage to prevent data migration across clusters </t>
   </si>
   <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>在YARN中运行不同的计算框架可以带来以下好处：
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>老师说的。在YARN中运行不同的计算框架可以带来以下好处：
 B. 计算资源按需扩展 (Computing resources scale as required)
 D. 共享底层存储以防止跨集群的数据迁移 (Share the underlying storage to prevent data migration across clusters)
 计算资源按需扩展：YARN（Yet Another Resource Negotiator）允许不同的计算框架动态地分配资源，这意味着计算资源可以根据应用程序的需求进行扩展。
@@ -1629,7 +1644,7 @@
     <t>Data security includes three aspects: prevention of data loss, prevention of data leakage, and prevention of data tampering ( )</t>
   </si>
   <si>
-    <t>正确。数据安全确实涉及防止数据丢失、泄露和篡改。</t>
+    <t>错误。数据安全的CIA三要素/原则包括机密性（Confidentiality）、完整性（Integrity）和可用性（Availability）。</t>
   </si>
   <si>
     <t>Visualization mapping is the core step of visualization, which refers to mapping data information into visual elements, and the mapping results are usually intuitive, easy to understand and remember ( ).</t>
@@ -1659,7 +1674,7 @@
     <t>After collecting various kinds of data, it is necessary to process the original data, which is generally shown as follows: data cleaning -&gt; data transformation -&gt; data integration -&gt; data specification ( )</t>
   </si>
   <si>
-    <t>正确。原始数据处理通常包括数据清洗、数据转换、数据整合和数据规范化这些步骤。</t>
+    <t>错误。原始数据处理通常包括数据清洗、数据转换、数据整合和数据规范化这些步骤，顺序不对。</t>
   </si>
   <si>
     <t>Cloud computing, as a new supercomputing method and service model, is a data-intensive supercomputing centered on data statistics and data analysis ( ).</t>
@@ -1701,7 +1716,10 @@
     <t>Feature extraction methods can be roughly divided into three categories: morphological analysis, association analysis, semantic analysis ( )</t>
   </si>
   <si>
-    <t>错误。特征提取方法通常分为两大类：基于统计的方法和基于模型的方法。</t>
+    <t>对的，特征提取方法大致可以分为三类：形态分析（Morphological Analysis）、关联分析（Association Analysis）和语义分析（Semantic Analysis）。
+形态分析（Morphological Analysis）：这种方法专注于从数据中提取形状、结构或模式等特征。在图像处理中，这可能包括识别边缘、角点、纹理等。在文本分析中，则可能涉及词形变化、句法结构等。
+关联分析（Association Analysis）：这种方法旨在发现数据项之间的关联规则或频繁项集。它通常用于市场篮分析、推荐系统等领域，通过分析不同数据项（如商品、词汇等）之间的共现关系来提取特征。
+语义分析（Semantic Analysis）：这是指在更深层次上理解数据的含义，如文本的含义、情感倾向等。在自然语言处理（NLP）中，语义分析可能涉及词义消歧、情感分析、话题建模等。这种分析通常需要理解数据的上下文和文化背景。</t>
   </si>
   <si>
     <t>Data mining is the process of extracting hidden but potentially valuable information and knowledge from a large number of incomplete, noisy, fuzzy and random application data ( ).</t>
@@ -2398,7 +2416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2416,6 +2434,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2944,17 +2968,17 @@
   <sheetPr/>
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E78" workbookViewId="0">
-      <selection activeCell="R79" sqref="R79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.53097345132743" customWidth="1"/>
     <col min="2" max="2" width="9.53097345132743" customWidth="1"/>
-    <col min="3" max="3" width="7.53097345132743" customWidth="1"/>
-    <col min="4" max="4" width="11.7964601769912" customWidth="1"/>
-    <col min="5" max="5" width="38.2566371681416" customWidth="1"/>
+    <col min="3" max="3" width="2.42477876106195" customWidth="1"/>
+    <col min="4" max="4" width="41.070796460177" customWidth="1"/>
+    <col min="5" max="5" width="10.3893805309735" customWidth="1"/>
     <col min="6" max="6" width="7.53097345132743" customWidth="1"/>
     <col min="7" max="7" width="53.8053097345133" customWidth="1"/>
   </cols>
@@ -3005,7 +3029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="94.5" spans="1:7">
+    <row r="3" ht="324" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3114,10 +3138,10 @@
         <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" ht="135" spans="1:7">
@@ -3131,13 +3155,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>32</v>
@@ -3160,7 +3184,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>35</v>
@@ -3298,7 +3322,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>53</v>
@@ -3321,7 +3345,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>56</v>
@@ -3344,7 +3368,7 @@
         <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>59</v>
@@ -3413,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>68</v>
@@ -3436,7 +3460,7 @@
         <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>71</v>
@@ -3459,7 +3483,7 @@
         <v>73</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>74</v>
@@ -3482,7 +3506,7 @@
         <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>77</v>
@@ -3505,7 +3529,7 @@
         <v>79</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>80</v>
@@ -3551,7 +3575,7 @@
         <v>85</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>86</v>
@@ -3574,7 +3598,7 @@
         <v>88</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>89</v>
@@ -3603,7 +3627,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" ht="148.5" spans="1:7">
+    <row r="29" ht="54" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3620,11 +3644,9 @@
         <v>94</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" ht="135" spans="1:7">
       <c r="A30" s="1">
@@ -3637,16 +3659,16 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="108" spans="1:7">
@@ -3660,19 +3682,19 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" ht="148.5" spans="1:7">
+    </row>
+    <row r="32" ht="175.5" spans="1:7">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3683,19 +3705,19 @@
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" ht="162" spans="1:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" ht="337.5" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3706,19 +3728,19 @@
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" ht="148.5" spans="1:7">
+    </row>
+    <row r="34" ht="351" spans="1:7">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3729,16 +3751,16 @@
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="162" spans="1:7">
@@ -3752,16 +3774,16 @@
         <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" ht="148.5" spans="1:7">
@@ -3775,19 +3797,19 @@
         <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" ht="175.5" spans="1:7">
+    </row>
+    <row r="37" ht="324" spans="1:7">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3798,19 +3820,19 @@
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" ht="121.5" spans="1:7">
+    </row>
+    <row r="38" ht="148.5" spans="1:7">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3821,16 +3843,16 @@
         <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="189" spans="1:7">
@@ -3844,16 +3866,16 @@
         <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="108" spans="1:7">
@@ -3867,16 +3889,16 @@
         <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="41" ht="94.5" spans="1:7">
@@ -3890,16 +3912,16 @@
         <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="42" ht="108" spans="1:7">
@@ -3913,16 +3935,16 @@
         <v>41</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="108" spans="1:7">
@@ -3936,16 +3958,16 @@
         <v>42</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="67.5" spans="1:7">
@@ -3959,16 +3981,16 @@
         <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="45" ht="202.5" spans="1:7">
@@ -3982,16 +4004,16 @@
         <v>44</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="175.5" spans="1:7">
@@ -4005,16 +4027,16 @@
         <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="47" ht="94.5" spans="1:7">
@@ -4028,16 +4050,16 @@
         <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="175.5" spans="1:7">
@@ -4051,16 +4073,16 @@
         <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="49" ht="189" spans="1:7">
@@ -4074,16 +4096,16 @@
         <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" ht="162" spans="1:7">
@@ -4097,16 +4119,16 @@
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="51" ht="81" spans="1:7">
@@ -4120,16 +4142,16 @@
         <v>50</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="52" ht="94.5" spans="1:7">
@@ -4143,16 +4165,16 @@
         <v>51</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" ht="148.5" spans="1:7">
@@ -4166,16 +4188,16 @@
         <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" ht="94.5" spans="1:7">
@@ -4189,16 +4211,16 @@
         <v>53</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" ht="81" spans="1:7">
@@ -4212,16 +4234,16 @@
         <v>54</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="56" ht="135" spans="1:7">
@@ -4235,16 +4257,16 @@
         <v>55</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" ht="175.5" spans="1:7">
@@ -4258,16 +4280,16 @@
         <v>56</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="58" ht="148.5" spans="1:7">
@@ -4281,16 +4303,16 @@
         <v>57</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" ht="175.5" spans="1:7">
@@ -4304,16 +4326,16 @@
         <v>58</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" ht="81" spans="1:7">
@@ -4327,16 +4349,16 @@
         <v>59</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="61" ht="148.5" spans="1:7">
@@ -4350,16 +4372,16 @@
         <v>60</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="62" ht="148.5" spans="1:7">
@@ -4373,16 +4395,16 @@
         <v>61</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" ht="148.5" spans="1:7">
@@ -4396,19 +4418,19 @@
         <v>62</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" ht="162" spans="1:7">
+    </row>
+    <row r="64" ht="175.5" spans="1:7">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4419,39 +4441,39 @@
         <v>63</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" ht="243" spans="1:7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" ht="337.5" spans="1:7">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="66" ht="256.5" spans="1:7">
@@ -4459,22 +4481,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="67" ht="216" spans="1:7">
@@ -4482,22 +4504,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C67" s="1">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="68" ht="162" spans="1:7">
@@ -4505,22 +4527,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="1">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="69" ht="229.5" spans="1:7">
@@ -4528,22 +4550,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69" s="1">
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" ht="216" spans="1:7">
@@ -4551,22 +4573,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C70" s="1">
         <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="71" ht="216" spans="1:7">
@@ -4574,68 +4596,68 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" s="1">
         <v>7</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="72" ht="202.5" spans="1:7">
+    </row>
+    <row r="72" ht="256.5" spans="1:7">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C72" s="1">
         <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" ht="229.5" spans="1:7">
+    </row>
+    <row r="73" ht="324" spans="1:7">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C73" s="1">
         <v>9</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="74" ht="256.5" spans="1:7">
@@ -4643,22 +4665,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C74" s="1">
         <v>10</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="75" ht="229.5" spans="1:7">
@@ -4666,22 +4688,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C75" s="1">
         <v>11</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="76" ht="202.5" spans="1:7">
@@ -4689,22 +4711,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76" s="1">
         <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="77" ht="256.5" spans="1:7">
@@ -4712,22 +4734,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C77" s="1">
         <v>13</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="78" ht="310.5" spans="1:7">
@@ -4735,45 +4757,45 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C78" s="1">
         <v>14</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="79" ht="283.5" spans="1:7">
+    </row>
+    <row r="79" ht="297" spans="1:7">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C79" s="1">
         <v>15</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="80" ht="202.5" spans="1:7">
@@ -4781,22 +4803,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C80" s="1">
         <v>16</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="81" ht="189" spans="1:7">
@@ -4804,22 +4826,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C81" s="1">
         <v>17</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="82" ht="135" spans="1:7">
@@ -4827,22 +4849,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82" s="1">
         <v>18</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="F82" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="83" ht="202.5" spans="1:7">
@@ -4850,22 +4872,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C83" s="1">
         <v>19</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="84" ht="256.5" spans="1:7">
@@ -4873,22 +4895,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C84" s="1">
         <v>20</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="85" ht="351" spans="1:7">
@@ -4896,22 +4918,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C85" s="1">
         <v>21</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="86" ht="409.5" spans="1:7">
@@ -4919,22 +4941,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C86" s="1">
         <v>22</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="87" ht="256.5" spans="1:7">
@@ -4942,22 +4964,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C87" s="1">
         <v>23</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="88" ht="270" spans="1:7">
@@ -4965,22 +4987,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C88" s="1">
         <v>24</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="F88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="89" ht="229.5" spans="1:7">
@@ -4988,22 +5010,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C89" s="1">
         <v>25</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="90" ht="256.5" spans="1:7">
@@ -5011,22 +5033,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C90" s="1">
         <v>26</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="91" ht="337.5" spans="1:7">
@@ -5034,22 +5056,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C91" s="1">
         <v>27</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="92" ht="324" spans="1:7">
@@ -5057,22 +5079,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C92" s="1">
         <v>28</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="F92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="93" ht="351" spans="1:7">
@@ -5080,22 +5102,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C93" s="1">
         <v>29</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="F93" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="94" ht="54" spans="1:7">
@@ -5103,22 +5125,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C94" s="1">
         <v>30</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="F94" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="95" ht="283.5" spans="1:7">
@@ -5126,22 +5148,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C95" s="1">
         <v>31</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="96" ht="202.5" spans="1:7">
@@ -5149,22 +5171,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C96" s="1">
         <v>32</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="F96" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="97" ht="297" spans="1:7">
@@ -5172,22 +5194,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C97" s="1">
         <v>33</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="F97" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="98" ht="27" spans="1:7">
@@ -5195,22 +5217,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
       <c r="D98" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="F98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="99" ht="27" spans="1:7">
@@ -5218,22 +5240,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
       </c>
       <c r="D99" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="100" ht="27" spans="1:7">
@@ -5241,22 +5263,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C100" s="1">
         <v>3</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" ht="27" spans="1:7">
@@ -5264,22 +5286,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C101" s="1">
         <v>4</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" ht="27" spans="1:7">
@@ -5287,22 +5309,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C102" s="1">
         <v>5</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" ht="27" spans="1:7">
@@ -5310,22 +5332,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C103" s="1">
         <v>6</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="104" ht="27" spans="1:7">
@@ -5333,22 +5355,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C104" s="1">
         <v>7</v>
       </c>
       <c r="D104" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="105" ht="27" spans="1:7">
@@ -5356,22 +5378,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C105" s="1">
         <v>8</v>
       </c>
       <c r="D105" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="106" ht="27" spans="1:7">
@@ -5379,22 +5401,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C106" s="1">
         <v>9</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" ht="27" spans="1:7">
@@ -5402,22 +5424,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C107" s="1">
         <v>10</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" ht="27" spans="1:7">
@@ -5425,22 +5447,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C108" s="1">
         <v>11</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" ht="27" spans="1:7">
@@ -5448,22 +5470,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C109" s="1">
         <v>12</v>
       </c>
       <c r="D109" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="110" ht="27" spans="1:7">
@@ -5471,45 +5493,45 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C110" s="1">
         <v>13</v>
       </c>
       <c r="D110" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="111" ht="27" spans="1:7">
+    </row>
+    <row r="111" ht="299.25" spans="1:7">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C111" s="1">
         <v>14</v>
       </c>
       <c r="D111" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="112" ht="27" spans="1:7">
@@ -5517,22 +5539,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C112" s="1">
         <v>15</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" ht="27" spans="1:7">
@@ -5540,22 +5562,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C113" s="1">
         <v>16</v>
       </c>
       <c r="D113" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="114" ht="27" spans="1:7">
@@ -5563,22 +5585,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C114" s="1">
         <v>17</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115" ht="27" spans="1:7">
@@ -5586,22 +5608,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C115" s="1">
         <v>18</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" ht="27" spans="1:7">
@@ -5609,22 +5631,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C116" s="1">
         <v>19</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" ht="27" spans="1:7">
@@ -5632,22 +5654,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C117" s="1">
         <v>20</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" ht="27" spans="1:7">
@@ -5655,22 +5677,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C118" s="1">
         <v>21</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" ht="27" spans="1:7">
@@ -5678,22 +5700,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C119" s="1">
         <v>22</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" ht="27" spans="1:7">
@@ -5701,22 +5723,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C120" s="1">
         <v>23</v>
       </c>
       <c r="D120" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="121" ht="27" spans="1:7">
@@ -5724,22 +5746,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C121" s="1">
         <v>24</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
